--- a/BaoCaoLuong2018/BaoCaoLuong2018/Resources/ExportExcel.xlsx
+++ b/BaoCaoLuong2018/BaoCaoLuong2018/Resources/ExportExcel.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">LOẠI </t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>TÊN FILE ẢNH</t>
+  </si>
+  <si>
+    <t>Batch Name</t>
   </si>
 </sst>
 </file>
@@ -137,7 +140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -168,6 +171,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -470,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DJ1"/>
+  <dimension ref="A1:DK1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,10 +485,11 @@
     <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="114" width="13.28515625" style="1" customWidth="1"/>
-    <col min="115" max="16384" width="9.140625" style="1"/>
+    <col min="115" max="115" width="20.7109375" style="1" customWidth="1"/>
+    <col min="116" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -826,6 +831,9 @@
       </c>
       <c r="DJ1" s="6">
         <v>112</v>
+      </c>
+      <c r="DK1" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
